--- a/openvariantfipi/1_22.xlsx
+++ b/openvariantfipi/1_22.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7725"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,24 +356,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -394,8 +396,16 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>B2</f>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <f>MAX(D2:D17)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -405,8 +415,12 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f>B3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -416,8 +430,12 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f>B4+D2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -427,8 +445,12 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f>B5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -438,8 +460,12 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f>B6+D4</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -449,8 +475,12 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f>B7+D4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -460,8 +490,12 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f>B8+D6</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -471,8 +505,12 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f>B9+D6</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -482,8 +520,12 @@
       <c r="C10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f>B10+D9</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -493,8 +535,12 @@
       <c r="C11" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f>B11+D8</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -504,8 +550,12 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f>B12+D8</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -515,8 +565,12 @@
       <c r="C13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f>B13+D12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -526,8 +580,12 @@
       <c r="C14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f>B14+D12</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -537,8 +595,12 @@
       <c r="C15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f>B15+D12</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -548,8 +610,12 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f>B16+D15</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -558,6 +624,10 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D17">
+        <f>B17+D10</f>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
